--- a/2024/WGBYC2TAF/output/TOR_A_short_table.xlsx
+++ b/2024/WGBYC2TAF/output/TOR_A_short_table.xlsx
@@ -9502,10 +9502,10 @@
         <v>60</v>
       </c>
       <c r="I268" t="n">
-        <v>6955</v>
+        <v>6964</v>
       </c>
       <c r="J268" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="269">
@@ -10174,10 +10174,10 @@
         <v>137</v>
       </c>
       <c r="I289" t="n">
-        <v>-8</v>
+        <v>19</v>
       </c>
       <c r="J289" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="290">
@@ -10206,10 +10206,10 @@
         <v>138</v>
       </c>
       <c r="I290" t="n">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="J290" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="291">
@@ -10366,10 +10366,10 @@
         <v>141</v>
       </c>
       <c r="I295" t="n">
-        <v>1617</v>
+        <v>1635</v>
       </c>
       <c r="J295" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="296">
@@ -10398,10 +10398,10 @@
         <v>158</v>
       </c>
       <c r="I296" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J296" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297">
@@ -10462,10 +10462,10 @@
         <v>143</v>
       </c>
       <c r="I298" t="n">
-        <v>1055</v>
+        <v>1082</v>
       </c>
       <c r="J298" t="n">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="299">
@@ -11838,10 +11838,10 @@
         <v>172</v>
       </c>
       <c r="I341" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J341" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342">
@@ -11966,10 +11966,10 @@
         <v>60</v>
       </c>
       <c r="I345" t="n">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="J345" t="n">
-        <v>35</v>
+        <v>197</v>
       </c>
     </row>
     <row r="346">
@@ -12542,10 +12542,10 @@
         <v>137</v>
       </c>
       <c r="I363" t="n">
-        <v>-120</v>
+        <v>87</v>
       </c>
       <c r="J363" t="n">
-        <v>105</v>
+        <v>312</v>
       </c>
     </row>
     <row r="364">
@@ -12574,10 +12574,10 @@
         <v>138</v>
       </c>
       <c r="I364" t="n">
-        <v>62.93</v>
+        <v>260.93</v>
       </c>
       <c r="J364" t="n">
-        <v>106</v>
+        <v>304</v>
       </c>
     </row>
     <row r="365">
@@ -12766,10 +12766,10 @@
         <v>141</v>
       </c>
       <c r="I370" t="n">
-        <v>-23</v>
+        <v>4</v>
       </c>
       <c r="J370" t="n">
-        <v>-23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371">
@@ -12830,10 +12830,10 @@
         <v>143</v>
       </c>
       <c r="I372" t="n">
-        <v>707</v>
+        <v>887</v>
       </c>
       <c r="J372" t="n">
-        <v>390</v>
+        <v>570</v>
       </c>
     </row>
     <row r="373">
@@ -15966,10 +15966,10 @@
         <v>118</v>
       </c>
       <c r="I470" t="n">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="J470" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="471">
@@ -16126,10 +16126,10 @@
         <v>60</v>
       </c>
       <c r="I475" t="n">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="J475" t="n">
-        <v>103</v>
+        <v>220</v>
       </c>
     </row>
     <row r="476">
@@ -16190,10 +16190,10 @@
         <v>23</v>
       </c>
       <c r="I477" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J477" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478">
@@ -16862,10 +16862,10 @@
         <v>165</v>
       </c>
       <c r="I498" t="n">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="J498" t="n">
-        <v>49</v>
+        <v>94</v>
       </c>
     </row>
     <row r="499">
@@ -16894,10 +16894,10 @@
         <v>174</v>
       </c>
       <c r="I499" t="n">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="J499" t="n">
-        <v>150</v>
+        <v>204</v>
       </c>
     </row>
     <row r="500">
@@ -16990,10 +16990,10 @@
         <v>137</v>
       </c>
       <c r="I502" t="n">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="J502" t="n">
-        <v>139</v>
+        <v>175</v>
       </c>
     </row>
     <row r="503">
@@ -17022,10 +17022,10 @@
         <v>138</v>
       </c>
       <c r="I503" t="n">
-        <v>688.5</v>
+        <v>733.5</v>
       </c>
       <c r="J503" t="n">
-        <v>206</v>
+        <v>251</v>
       </c>
     </row>
     <row r="504">
@@ -17054,10 +17054,10 @@
         <v>147</v>
       </c>
       <c r="I504" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J504" t="n">
-        <v>-5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="505">
@@ -17182,10 +17182,10 @@
         <v>141</v>
       </c>
       <c r="I508" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J508" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="509">
@@ -17214,10 +17214,10 @@
         <v>143</v>
       </c>
       <c r="I509" t="n">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="J509" t="n">
-        <v>209</v>
+        <v>299</v>
       </c>
     </row>
     <row r="510">
